--- a/Inputs/MinhasAcoes.xlsx
+++ b/Inputs/MinhasAcoes.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
-    <t>TITULO CORRETORA RICO</t>
+    <t>TITULO CORRETORA</t>
   </si>
   <si>
     <t>CODIGO</t>
@@ -698,7 +698,7 @@
     <col min="5" max="5" style="15" width="10.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -732,7 +732,7 @@
         <v>43622</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -749,7 +749,7 @@
         <v>44542</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -766,7 +766,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -783,7 +783,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -800,7 +800,7 @@
         <v>44553</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -817,7 +817,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -834,7 +834,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -851,7 +851,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -868,7 +868,7 @@
         <v>43621</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -885,7 +885,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -902,7 +902,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -919,7 +919,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -936,7 +936,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
@@ -953,7 +953,7 @@
         <v>44553</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -970,7 +970,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
@@ -987,7 +987,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>43622</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="10" t="s">
         <v>66</v>
       </c>
